--- a/biology/Zoologie/Habu_(zoologie)/Habu_(zoologie).xlsx
+++ b/biology/Zoologie/Habu_(zoologie)/Habu_(zoologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot habu (ハブ) est originellement un mot japonais signifiant « moyeu ». Au Japon, il désigne aussi quatre espèces de serpents venimeux des îles Ryūkyū et plus particulièrement, employé seul, l'une d'entre elles (Protobothrops flavoviridis, également appelée Habu d'Okinawa ou Habu de Kume-jima). Dans le sud de la Chine, à Taïwan et dans l'Asie du Sud-Est, le mot habu désigne d'autres espèces, apparentées aux précédentes. Ce sont tous des crotalinés qui appartiennent aux genres Ovophis et Protobothrops, dont on trouve d'autres représentants dans toute l'Asie du Sud-Est.
 </t>
@@ -511,7 +523,9 @@
           <t>Habus des îles Ryūkyū (Japon)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quatre espèces de habus endémiques des îles Ryūkyū sont :
 le Habu d'Okinawa, Habu de Kume-jima ou simplement Habu (Protobothrops flavoviridis), qu'on rencontre notamment dans l'archipel Okinawa (préfecture d'Okinawa) et les îles Amami (préfecture de Kagoshima) ;
@@ -551,7 +565,9 @@
           <t>Autres espèces de habus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hors du Japon les espèces appelées Habu, apparentées aux espèces japonaises, sont :
 le Habu d'Arisa ou Vipère de montagne (Ovophis monticola), qu'on rencontre au Népal, au Bhoutan, au Bangladesh, en Inde, en Birmanie, en Chine, au Viêt Nam, au Cambodge, au Laos, en Thaïlande et en Malaisie péninsulaire ;
@@ -584,7 +600,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant l'occupation américaine du Japon, les A-12 (et ensuite les SR-71) qui décollaient de la base militaire de Kadena étaient surnommés habus par les locaux qui trouvaient que ces avions ressemblaient au serpent et avaient le même air dangereux.
 Le personnage principal d'une histoire pour enfant japonaise, Miki la mangouste, était un habu.
